--- a/syncronisation/Cash flow L.xlsx
+++ b/syncronisation/Cash flow L.xlsx
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="266">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -4016,12 +4016,6 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
@@ -7697,7 +7691,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8309,7 +8303,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8874,7 +8868,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="1" sqref="A39:I39 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9458,7 +9452,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="A39:I39 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9546,7 +9540,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="1" sqref="A39:I39 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10193,7 +10187,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="1" sqref="A39:I39 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10820,7 +10814,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="1" sqref="A39:I39 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11447,7 +11441,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="1" sqref="A39:I39 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12058,7 +12052,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="J1" activeCellId="1" sqref="A39:I39 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12669,7 +12663,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13294,7 +13288,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13919,7 +13913,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F5" activeCellId="1" sqref="A39:I39 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18593,7 +18587,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H3" activeCellId="1" sqref="A39:I39 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19426,7 +19420,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C14" activeCellId="1" sqref="A39:I39 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20260,7 +20254,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C14" activeCellId="1" sqref="A39:I39 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24946,7 +24940,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="A39:I39 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25051,7 +25045,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="L4" activeCellId="1" sqref="A39:I39 L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30605,7 +30599,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31362,7 +31356,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32154,7 +32148,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32933,7 +32927,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33720,7 +33714,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34411,7 +34405,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35020,7 +35014,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35775,7 +35769,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36530,7 +36524,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="1" sqref="A39:I39 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37304,7 +37298,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38107,7 +38101,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38906,7 +38900,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E4" activeCellId="1" sqref="A39:I39 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39698,7 +39692,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="A39:I39 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40483,7 +40477,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C14" activeCellId="1" sqref="A39:I39 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41226,7 +41220,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D25" activeCellId="1" sqref="A39:I39 D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41983,10 +41977,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43058,73 +43052,102 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="45" t="n">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="43" t="n">
         <v>43281</v>
       </c>
-      <c r="B38" s="46" t="n">
-        <v>2125</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47" t="n">
+      <c r="B38" s="36" t="n">
+        <v>2157</v>
+      </c>
+      <c r="D38" s="0" t="n">
         <v>62.81</v>
       </c>
-      <c r="E38" s="47" t="n">
+      <c r="E38" s="0" t="n">
         <v>73.51</v>
       </c>
-      <c r="F38" s="24" t="n">
+      <c r="F38" s="1" t="n">
         <f aca="false">B38 / D38</f>
-        <v>33.8321923260627</v>
-      </c>
-      <c r="G38" s="24" t="n">
+        <v>34.341665339914</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <f aca="false">B38 / E38</f>
-        <v>28.9076316147463</v>
-      </c>
-      <c r="H38" s="24" t="n">
+        <v>29.342946537886</v>
+      </c>
+      <c r="H38" s="1" t="n">
         <f aca="false">AVERAGE(F38,G38)</f>
-        <v>31.3699119704045</v>
-      </c>
-      <c r="I38" s="47" t="s">
+        <v>31.8423059389</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="43"/>
-      <c r="B39" s="36" t="n">
-        <f aca="false"> SUM(B24:B38)</f>
-        <v>114693.82</v>
-      </c>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="45" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B39" s="46" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="E39" s="47" t="n">
+        <v>73.48</v>
+      </c>
+      <c r="F39" s="24" t="n">
+        <f aca="false">B39 / D39</f>
+        <v>31.8522057652492</v>
+      </c>
+      <c r="G39" s="24" t="n">
+        <f aca="false">B39 / E39</f>
+        <v>27.2182906913446</v>
+      </c>
+      <c r="H39" s="24" t="n">
+        <f aca="false">AVERAGE(F39,G39)</f>
+        <v>29.5352482282969</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43" t="n">
+      <c r="A40" s="43"/>
+      <c r="B40" s="36" t="n">
+        <f aca="false">SUM(B24:B39)</f>
+        <v>116725.82</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="43" t="n">
         <v>43256</v>
       </c>
-      <c r="B40" s="36" t="n">
+      <c r="B41" s="36" t="n">
         <f aca="false">10000 + 590</f>
         <v>10590</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D41" s="0" t="n">
         <v>62.05</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E41" s="0" t="n">
         <v>72.74</v>
       </c>
-      <c r="F40" s="1" t="n">
-        <f aca="false">B40 / D40</f>
+      <c r="F41" s="1" t="n">
+        <f aca="false">B41 / D41</f>
         <v>170.668815471394</v>
       </c>
-      <c r="G40" s="1" t="n">
-        <f aca="false">B40 / E40</f>
+      <c r="G41" s="1" t="n">
+        <f aca="false">B41 / E41</f>
         <v>145.587022271103</v>
       </c>
-      <c r="H40" s="1" t="n">
-        <f aca="false">AVERAGE(F40,G40)</f>
+      <c r="H41" s="1" t="n">
+        <f aca="false">AVERAGE(F41,G41)</f>
         <v>158.127918871248</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I41" s="0" t="s">
         <v>263</v>
       </c>
     </row>
@@ -43152,7 +43175,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47883,7 +47906,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48670,7 +48693,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49235,7 +49258,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52964,7 +52987,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53087,7 +53110,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53652,7 +53675,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="A39:I39 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
